--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>anchor score</t>
   </si>
@@ -76,45 +76,45 @@
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>great</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>free</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
@@ -130,15 +130,12 @@
     <t>relief</t>
   </si>
   <si>
-    <t>important</t>
+    <t>care</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
@@ -148,18 +145,15 @@
     <t>please</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>online</t>
   </si>
   <si>
@@ -172,10 +166,10 @@
     <t>grocery</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
     <t>supermarket</t>
-  </si>
-  <si>
-    <t>consumer</t>
   </si>
   <si>
     <t>19</t>
@@ -542,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -553,7 +547,7 @@
         <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -685,13 +679,13 @@
         <v>20</v>
       </c>
       <c r="K4">
-        <v>0.9661016949152542</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -703,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -711,13 +705,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6815068493150684</v>
+        <v>0.7191780821917808</v>
       </c>
       <c r="C5">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="D5">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -729,19 +723,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K5">
-        <v>0.9393939393939394</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -753,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -761,13 +755,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -779,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -803,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -811,13 +805,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3892617449664429</v>
+        <v>0.3557046979865772</v>
       </c>
       <c r="C7">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D7">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -829,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K7">
-        <v>0.8414634146341463</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L7">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -853,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -861,13 +855,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3527131782945737</v>
+        <v>0.3507751937984496</v>
       </c>
       <c r="C8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -879,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K8">
-        <v>0.8392857142857143</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L8">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -903,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -911,13 +905,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3068783068783069</v>
+        <v>0.3439153439153439</v>
       </c>
       <c r="C9">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D9">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -929,19 +923,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K9">
-        <v>0.828125</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L9">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="M9">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -953,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -961,13 +955,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2777777777777778</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -979,19 +973,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K10">
-        <v>0.8103448275862069</v>
+        <v>0.8125</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1003,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1011,13 +1005,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2103174603174603</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="C11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1029,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K11">
-        <v>0.8085106382978723</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L11">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="M11">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1053,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1061,13 +1055,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1206434316353887</v>
+        <v>0.1152815013404826</v>
       </c>
       <c r="C12">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D12">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1079,19 +1073,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K12">
-        <v>0.803921568627451</v>
+        <v>0.8</v>
       </c>
       <c r="L12">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="M12">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1103,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1111,13 +1105,13 @@
         <v>29</v>
       </c>
       <c r="K13">
-        <v>0.775</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="L13">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="M13">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1129,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1163,13 +1157,13 @@
         <v>31</v>
       </c>
       <c r="K15">
-        <v>0.746031746031746</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L15">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="M15">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1181,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1189,13 +1183,13 @@
         <v>32</v>
       </c>
       <c r="K16">
-        <v>0.7358490566037735</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L16">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="M16">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1207,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1215,13 +1209,13 @@
         <v>33</v>
       </c>
       <c r="K17">
-        <v>0.7125</v>
+        <v>0.70625</v>
       </c>
       <c r="L17">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M17">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1233,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1241,13 +1235,13 @@
         <v>34</v>
       </c>
       <c r="K18">
-        <v>0.6808510638297872</v>
+        <v>0.6702127659574468</v>
       </c>
       <c r="L18">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M18">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1259,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1267,13 +1261,13 @@
         <v>35</v>
       </c>
       <c r="K19">
-        <v>0.6458333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1285,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1293,13 +1287,13 @@
         <v>36</v>
       </c>
       <c r="K20">
-        <v>0.6005221932114883</v>
+        <v>0.6266318537859008</v>
       </c>
       <c r="L20">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="M20">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1311,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1319,13 +1313,13 @@
         <v>37</v>
       </c>
       <c r="K21">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1337,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1345,13 +1339,13 @@
         <v>38</v>
       </c>
       <c r="K22">
-        <v>0.6</v>
+        <v>0.6067415730337079</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1363,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1371,13 +1365,13 @@
         <v>39</v>
       </c>
       <c r="K23">
-        <v>0.5823529411764706</v>
+        <v>0.5705882352941176</v>
       </c>
       <c r="L23">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M23">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1389,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1397,13 +1391,13 @@
         <v>40</v>
       </c>
       <c r="K24">
-        <v>0.5730337078651685</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="L24">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="M24">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1415,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>38</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1423,13 +1417,13 @@
         <v>41</v>
       </c>
       <c r="K25">
-        <v>0.5288135593220339</v>
+        <v>0.4794520547945205</v>
       </c>
       <c r="L25">
-        <v>156</v>
+        <v>35</v>
       </c>
       <c r="M25">
-        <v>156</v>
+        <v>35</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1441,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>139</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1449,13 +1443,13 @@
         <v>42</v>
       </c>
       <c r="K26">
-        <v>0.5068493150684932</v>
+        <v>0.4769874476987448</v>
       </c>
       <c r="L26">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="M26">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1467,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>36</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1475,13 +1469,13 @@
         <v>43</v>
       </c>
       <c r="K27">
-        <v>0.4895397489539749</v>
+        <v>0.453125</v>
       </c>
       <c r="L27">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1493,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>122</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1501,13 +1495,13 @@
         <v>44</v>
       </c>
       <c r="K28">
-        <v>0.4769230769230769</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="L28">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M28">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1519,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1527,7 +1521,7 @@
         <v>45</v>
       </c>
       <c r="K29">
-        <v>0.40625</v>
+        <v>0.4</v>
       </c>
       <c r="L29">
         <v>26</v>
@@ -1545,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1553,13 +1547,13 @@
         <v>46</v>
       </c>
       <c r="K30">
-        <v>0.3974358974358974</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="L30">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="M30">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1571,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>47</v>
+        <v>361</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1579,13 +1573,13 @@
         <v>47</v>
       </c>
       <c r="K31">
-        <v>0.3857142857142857</v>
+        <v>0.1129807692307692</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1597,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>43</v>
+        <v>369</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1605,13 +1599,13 @@
         <v>48</v>
       </c>
       <c r="K32">
-        <v>0.1220095693779904</v>
+        <v>0.06599552572706935</v>
       </c>
       <c r="L32">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="M32">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1623,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>367</v>
+        <v>835</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1631,13 +1625,13 @@
         <v>49</v>
       </c>
       <c r="K33">
-        <v>0.09134615384615384</v>
+        <v>0.05216426193118757</v>
       </c>
       <c r="L33">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="M33">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1649,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>378</v>
+        <v>854</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1657,25 +1651,25 @@
         <v>50</v>
       </c>
       <c r="K34">
-        <v>0.06823266219239374</v>
+        <v>0.04160246533127889</v>
       </c>
       <c r="L34">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="M34">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>833</v>
+        <v>622</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1683,13 +1677,13 @@
         <v>51</v>
       </c>
       <c r="K35">
-        <v>0.05438401775804662</v>
+        <v>0.03460207612456748</v>
       </c>
       <c r="L35">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="M35">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1701,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>852</v>
+        <v>837</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1709,13 +1703,13 @@
         <v>52</v>
       </c>
       <c r="K36">
-        <v>0.04046242774566474</v>
+        <v>0.03412809724170173</v>
       </c>
       <c r="L36">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="M36">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="N36">
         <v>0.95</v>
@@ -1727,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>830</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1735,25 +1729,25 @@
         <v>53</v>
       </c>
       <c r="K37">
-        <v>0.03858024691358024</v>
+        <v>0.01614465611882467</v>
       </c>
       <c r="L37">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M37">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="N37">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="O37">
-        <v>0.06999999999999995</v>
+        <v>0.17</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>623</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1761,77 +1755,25 @@
         <v>54</v>
       </c>
       <c r="K38">
-        <v>0.03320860617399439</v>
+        <v>0.007834534628643058</v>
       </c>
       <c r="L38">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="M38">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="N38">
-        <v>0.93</v>
+        <v>0.71</v>
       </c>
       <c r="O38">
-        <v>0.06999999999999995</v>
+        <v>0.29</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>2067</v>
-      </c>
-    </row>
-    <row r="39" spans="10:17">
-      <c r="J39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K39">
-        <v>0.01677960632462085</v>
-      </c>
-      <c r="L39">
-        <v>52</v>
-      </c>
-      <c r="M39">
-        <v>60</v>
-      </c>
-      <c r="N39">
-        <v>0.87</v>
-      </c>
-      <c r="O39">
-        <v>0.13</v>
-      </c>
-      <c r="P39" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q39">
-        <v>3047</v>
-      </c>
-    </row>
-    <row r="40" spans="10:17">
-      <c r="J40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K40">
-        <v>0.008135168961201502</v>
-      </c>
-      <c r="L40">
-        <v>26</v>
-      </c>
-      <c r="M40">
-        <v>31</v>
-      </c>
-      <c r="N40">
-        <v>0.84</v>
-      </c>
-      <c r="O40">
-        <v>0.16</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>3170</v>
+        <v>3166</v>
       </c>
     </row>
   </sheetData>
